--- a/訓練資料集(鞋子).xlsx
+++ b/訓練資料集(鞋子).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD721B7E-9530-461B-AD8D-4F6BFB023D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A7BE14-A44E-47A8-8FEB-191570E66AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6769" uniqueCount="1691">
   <si>
     <t>URL</t>
   </si>
@@ -5270,6 +5270,18 @@
   </si>
   <si>
     <t>https://tpimage.91app.com/adidas/HQ1458_OK/1-Main/All/HQ1458_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_04.jpg</t>
   </si>
 </sst>
 </file>
@@ -5699,8 +5711,8 @@
   <dimension ref="A1:H1832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1607" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1636" sqref="H1636"/>
+      <pane ySplit="1" topLeftCell="A1616" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1648" sqref="G1648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35234,39 +35246,111 @@
       </c>
     </row>
     <row r="1641" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1641" s="6" t="str" cm="1">
+      <c r="A1641" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1641" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1641" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1641" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1641" s="6" cm="1">
         <f t="array" ref="E1641">IF(C1641="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1641)*(工作表2!B:B=D1641), 0)),""))</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="1642" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1642" s="6" t="str" cm="1">
+      <c r="A1642" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1642" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1642" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1642" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1642" s="6" cm="1">
         <f t="array" ref="E1642">IF(C1642="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1642)*(工作表2!B:B=D1642), 0)),""))</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="1643" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1643" s="6" t="str" cm="1">
+      <c r="A1643" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1643" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1643" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1643" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1643" s="6" cm="1">
         <f t="array" ref="E1643">IF(C1643="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1643)*(工作表2!B:B=D1643), 0)),""))</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="1644" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1644" s="6" t="str" cm="1">
+      <c r="A1644" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1644" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1644" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1644" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1644" s="6" cm="1">
         <f t="array" ref="E1644">IF(C1644="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1644)*(工作表2!B:B=D1644), 0)),""))</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="1645" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1645" s="6" t="str" cm="1">
+      <c r="A1645" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1645" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1645" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1645" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1645" s="6" cm="1">
         <f t="array" ref="E1645">IF(C1645="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1645)*(工作表2!B:B=D1645), 0)),""))</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="1646" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1646" s="6" t="str" cm="1">
+      <c r="A1646" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1646" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1646" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1646" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1646" s="6" cm="1">
         <f t="array" ref="E1646">IF(C1646="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1646)*(工作表2!B:B=D1646), 0)),""))</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="1647" spans="1:5" ht="15.75" customHeight="1">

--- a/訓練資料集(鞋子).xlsx
+++ b/訓練資料集(鞋子).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A7BE14-A44E-47A8-8FEB-191570E66AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC20EF-953D-4F2A-830B-2C0E4F0AC52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6769" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7139" uniqueCount="1789">
   <si>
     <t>URL</t>
   </si>
@@ -5210,21 +5210,12 @@
     <t>https://tpimage.91app.com/adidas/JR7675_OK/1-Main/All/JR7675_07.jpg</t>
   </si>
   <si>
-    <t>白背情境男女模特正面</t>
-  </si>
-  <si>
-    <t>白背情境男女模特背面</t>
-  </si>
-  <si>
     <t>情境男女模特正面</t>
   </si>
   <si>
     <t>情境半身模特正面</t>
   </si>
   <si>
-    <t>情境半模特背面</t>
-  </si>
-  <si>
     <t>情境全身模特正面</t>
   </si>
   <si>
@@ -5250,45 +5241,401 @@
   </si>
   <si>
     <t>模特背面</t>
-  </si>
-  <si>
-    <t>白背平拍正面</t>
-  </si>
-  <si>
-    <t>白背平拍背面</t>
   </si>
   <si>
     <t>細節</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上衣</t>
+    <t>https://tpimage.91app.com/adidas/HQ1458_OK/1-Main/All/HQ1458_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/HQ1458_OK/1-Main/All/HQ1458_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_04.jpg</t>
+  </si>
+  <si>
+    <t>包包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://tpimage.91app.com/adidas/HQ1458_OK/1-Main/All/HQ1458_01.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/HQ1458_OK/1-Main/All/HQ1458_02.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_01.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_02.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_03.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/IG8705_OK/1-Main/All/IG8705_04.jpg</t>
+    <t>_PK_</t>
+  </si>
+  <si>
+    <t>_P_</t>
+  </si>
+  <si>
+    <t>_LC_</t>
+  </si>
+  <si>
+    <t>_SLC_</t>
+  </si>
+  <si>
+    <t>_PR_</t>
+  </si>
+  <si>
+    <t>_TPP_</t>
+  </si>
+  <si>
+    <t>_BT_</t>
+  </si>
+  <si>
+    <t>_FR_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FLT_</t>
+  </si>
+  <si>
+    <t>_BLT_</t>
+  </si>
+  <si>
+    <t>_MP_</t>
+  </si>
+  <si>
+    <t>_D1_</t>
+  </si>
+  <si>
+    <t>_D2_</t>
+  </si>
+  <si>
+    <t>_D3_</t>
+  </si>
+  <si>
+    <t>_H1_</t>
+  </si>
+  <si>
+    <t>_H2_</t>
+  </si>
+  <si>
+    <t>_H3_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Bty_</t>
+  </si>
+  <si>
+    <t>_REF_</t>
+  </si>
+  <si>
+    <t>_H3_</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>平拍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FC_</t>
+  </si>
+  <si>
+    <t>平拍背面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BC_</t>
+  </si>
+  <si>
+    <t>_FSL_</t>
+  </si>
+  <si>
+    <t>內層</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_</t>
+  </si>
+  <si>
+    <t>情境半身模特側面</t>
+  </si>
+  <si>
+    <t>情境半身模特背面</t>
+  </si>
+  <si>
+    <t>_B_Model_</t>
+  </si>
+  <si>
+    <t>_F_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特側面</t>
+  </si>
+  <si>
+    <t>_W_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拍正面</t>
+  </si>
+  <si>
+    <t>平拍背面</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_07.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_08.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_09.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG2160_OK/1-Main/All/IG2160_10.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_07.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IG4215_OK/1-Main/All/IG4215_08.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2815_OK/1-Main/All/GZ2815_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2815_OK/1-Main/All/GZ2815_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2815_OK/1-Main/All/GZ2815_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_07.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_08.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_09.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/EG3284_OK/1-Main/All/EG3284_10.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_07.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_08.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2812_OK/1-Main/All/GZ2812_09.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2818_OK/1-Main/All/GZ2818_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2813_OK/1-Main/All/GZ2813_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2813_OK/1-Main/All/GZ2813_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2813_OK/1-Main/All/GZ2813_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GZ2813_OK/1-Main/All/GZ2813_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_BLT_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_BT_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_Bty_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_D1_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_D2_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_FLT_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_MP_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_REF_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_SLC_eCom.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/AI Sample/運動鞋/IG8985_TPP_eCom.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>身</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境男女模特背面</t>
+  </si>
+  <si>
+    <t>情境平拍正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境平拍背面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女模特半身背面大圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SUBV_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SUPS_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特背面大圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜光正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜光細節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JI2756_OK/1-Main/All/JI2756_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JI2755_OK/1-Main/All/JI2755_01.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5410,13 +5757,75 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5447,7 +5856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5488,7 +5897,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5711,8 +6131,8 @@
   <dimension ref="A1:H1832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1648" sqref="G1648"/>
+      <pane ySplit="1" topLeftCell="A1682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1693" sqref="G1693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35211,7 +35631,7 @@
     </row>
     <row r="1639" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1639" s="7" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="B1639" s="5" t="s">
         <v>856</v>
@@ -35229,7 +35649,7 @@
     </row>
     <row r="1640" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1640" s="7" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="B1640" s="5" t="s">
         <v>856</v>
@@ -35247,7 +35667,7 @@
     </row>
     <row r="1641" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1641" s="7" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="B1641" s="5" t="s">
         <v>856</v>
@@ -35265,7 +35685,7 @@
     </row>
     <row r="1642" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1642" s="7" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="B1642" s="5" t="s">
         <v>856</v>
@@ -35283,7 +35703,7 @@
     </row>
     <row r="1643" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1643" s="7" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="B1643" s="5" t="s">
         <v>856</v>
@@ -35301,7 +35721,7 @@
     </row>
     <row r="1644" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1644" s="7" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="B1644" s="5" t="s">
         <v>856</v>
@@ -35354,396 +35774,1080 @@
       </c>
     </row>
     <row r="1647" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1647" s="6" t="str" cm="1">
+      <c r="A1647" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1647" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1647" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1647" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1647" s="6" cm="1">
         <f t="array" ref="E1647">IF(C1647="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1647)*(工作表2!B:B=D1647), 0)),""))</f>
-        <v/>
+        <v>13</v>
       </c>
     </row>
     <row r="1648" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1648" s="6" t="str" cm="1">
+      <c r="A1648" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1648" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1648" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1648" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1648" s="6" cm="1">
         <f t="array" ref="E1648">IF(C1648="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1648)*(工作表2!B:B=D1648), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1649" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1649" s="6" t="str" cm="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1649" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1649" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1649" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1649" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1649" s="6" cm="1">
         <f t="array" ref="E1649">IF(C1649="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1649)*(工作表2!B:B=D1649), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1650" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1650" s="6" t="str" cm="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1650" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1650" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1650" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1650" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1650" s="6" cm="1">
         <f t="array" ref="E1650">IF(C1650="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1650)*(工作表2!B:B=D1650), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1651" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1651" s="6" t="str" cm="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1651" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1651" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1651" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1651" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1651" s="6" cm="1">
         <f t="array" ref="E1651">IF(C1651="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1651)*(工作表2!B:B=D1651), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1652" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1652" s="6" t="str" cm="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1652" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1652" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1652" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1652" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1652" s="6" cm="1">
         <f t="array" ref="E1652">IF(C1652="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1652)*(工作表2!B:B=D1652), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1653" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1653" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1653" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1653" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1653" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1653" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1653" s="6" cm="1">
         <f t="array" ref="E1653">IF(C1653="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1653)*(工作表2!B:B=D1653), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1654" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1654" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1654" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1654" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1654" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1654" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1654" s="6" cm="1">
         <f t="array" ref="E1654">IF(C1654="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1654)*(工作表2!B:B=D1654), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1655" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1655" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1655" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1655" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1655" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1655" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1655" s="6" cm="1">
         <f t="array" ref="E1655">IF(C1655="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1655)*(工作表2!B:B=D1655), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1656" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1656" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1656" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1656" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1656" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1656" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1656" s="6" cm="1">
         <f t="array" ref="E1656">IF(C1656="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1656)*(工作表2!B:B=D1656), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1657" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1657" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1657" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1657" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1657" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1657" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1657" s="6" cm="1">
         <f t="array" ref="E1657">IF(C1657="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1657)*(工作表2!B:B=D1657), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1658" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1658" s="6" t="str" cm="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1658" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1658" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1658" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1658" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1658" s="6" cm="1">
         <f t="array" ref="E1658">IF(C1658="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1658)*(工作表2!B:B=D1658), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1659" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1659" s="6" t="str" cm="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1659" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1659" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1659" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1659" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1659" s="6" cm="1">
         <f t="array" ref="E1659">IF(C1659="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1659)*(工作表2!B:B=D1659), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1660" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1660" s="6" t="str" cm="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1660" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1660" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1660" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1660" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1660" s="6" cm="1">
         <f t="array" ref="E1660">IF(C1660="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1660)*(工作表2!B:B=D1660), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1661" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1661" s="6" t="str" cm="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1661" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1661" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1661" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1661" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1661" s="6" cm="1">
         <f t="array" ref="E1661">IF(C1661="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1661)*(工作表2!B:B=D1661), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1662" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1662" s="6" t="str" cm="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1662" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1662" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1662" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1662" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1662" s="6" cm="1">
         <f t="array" ref="E1662">IF(C1662="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1662)*(工作表2!B:B=D1662), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1663" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1663" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1663" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1663" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1663" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1663" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1663" s="6" cm="1">
         <f t="array" ref="E1663">IF(C1663="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1663)*(工作表2!B:B=D1663), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1664" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1664" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1664" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1664" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1664" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1664" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1664" s="6" cm="1">
         <f t="array" ref="E1664">IF(C1664="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1664)*(工作表2!B:B=D1664), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1665" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1665" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1665" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1665" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1665" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1665" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1665" s="6" cm="1">
         <f t="array" ref="E1665">IF(C1665="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1665)*(工作表2!B:B=D1665), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1666" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1666" s="6" t="str" cm="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1666" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1666" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1666" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1666" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1666" s="6" cm="1">
         <f t="array" ref="E1666">IF(C1666="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1666)*(工作表2!B:B=D1666), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1667" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1667" s="6" t="str" cm="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1667" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1667" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1667" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1667" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1667" s="6" cm="1">
         <f t="array" ref="E1667">IF(C1667="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1667)*(工作表2!B:B=D1667), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1668" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1668" s="6" t="str" cm="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1668" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1668" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1668" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1668" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1668" s="6" cm="1">
         <f t="array" ref="E1668">IF(C1668="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1668)*(工作表2!B:B=D1668), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1669" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1669" s="6" t="str" cm="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1669" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1669" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1669" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1669" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1669" s="6" cm="1">
         <f t="array" ref="E1669">IF(C1669="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1669)*(工作表2!B:B=D1669), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1670" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1670" s="6" t="str" cm="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1670" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1670" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1670" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1670" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1670" s="6" cm="1">
         <f t="array" ref="E1670">IF(C1670="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1670)*(工作表2!B:B=D1670), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1671" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1671" s="6" t="str" cm="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1671" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1671" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1671" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1671" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1671" s="6" cm="1">
         <f t="array" ref="E1671">IF(C1671="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1671)*(工作表2!B:B=D1671), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1672" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1672" s="6" t="str" cm="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1672" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1672" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1672" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1672" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1672" s="6" cm="1">
         <f t="array" ref="E1672">IF(C1672="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1672)*(工作表2!B:B=D1672), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1673" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1673" s="6" t="str" cm="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1673" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1673" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1673" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1673" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1673" s="6" cm="1">
         <f t="array" ref="E1673">IF(C1673="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1673)*(工作表2!B:B=D1673), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1674" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1674" s="6" t="str" cm="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1674" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1674" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1674" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1674" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1674" s="6" cm="1">
         <f t="array" ref="E1674">IF(C1674="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1674)*(工作表2!B:B=D1674), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1675" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1675" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1675" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1675" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1675" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1675" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1675" s="6" cm="1">
         <f t="array" ref="E1675">IF(C1675="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1675)*(工作表2!B:B=D1675), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1676" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1676" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1676" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1676" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1676" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1676" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1676" s="6" cm="1">
         <f t="array" ref="E1676">IF(C1676="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1676)*(工作表2!B:B=D1676), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1677" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1677" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1677" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1677" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1677" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1677" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1677" s="6" cm="1">
         <f t="array" ref="E1677">IF(C1677="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1677)*(工作表2!B:B=D1677), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1678" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1678" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1678" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1678" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1678" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1678" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1678" s="6" cm="1">
         <f t="array" ref="E1678">IF(C1678="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1678)*(工作表2!B:B=D1678), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1679" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1679" s="6" t="str" cm="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1679" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1679" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1679" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1679" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1679" s="6" cm="1">
         <f t="array" ref="E1679">IF(C1679="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1679)*(工作表2!B:B=D1679), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1680" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1680" s="6" t="str" cm="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1680" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1680" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1680" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1680" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1680" s="6" cm="1">
         <f t="array" ref="E1680">IF(C1680="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1680)*(工作表2!B:B=D1680), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1681" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1681" s="6" t="str" cm="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1681" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1681" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1681" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1681" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1681" s="6" cm="1">
         <f t="array" ref="E1681">IF(C1681="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1681)*(工作表2!B:B=D1681), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1682" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1682" s="6" t="str" cm="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1682" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1682" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1682" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1682" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1682" s="6" cm="1">
         <f t="array" ref="E1682">IF(C1682="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1682)*(工作表2!B:B=D1682), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1683" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1683" s="6" t="str" cm="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1683" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1683" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1683" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1683" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1683" s="6" cm="1">
         <f t="array" ref="E1683">IF(C1683="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1683)*(工作表2!B:B=D1683), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1684" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1684" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1684" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1684" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1684" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1684" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1684" s="6" cm="1">
         <f t="array" ref="E1684">IF(C1684="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1684)*(工作表2!B:B=D1684), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1685" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1685" s="6" t="str" cm="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1685" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1685" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1685" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1685" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1685" s="6" cm="1">
         <f t="array" ref="E1685">IF(C1685="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1685)*(工作表2!B:B=D1685), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1686" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1686" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1686" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1686" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1686" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1686" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1686" s="6" cm="1">
         <f t="array" ref="E1686">IF(C1686="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1686)*(工作表2!B:B=D1686), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1687" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1687" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1687" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1687" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1687" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1687" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1687" s="6" cm="1">
         <f t="array" ref="E1687">IF(C1687="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1687)*(工作表2!B:B=D1687), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1688" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1688" s="6" t="str" cm="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1688" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1688" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1688" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1688" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1688" s="6" cm="1">
         <f t="array" ref="E1688">IF(C1688="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1688)*(工作表2!B:B=D1688), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1689" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1689" s="6" t="str" cm="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1689" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1689" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1689" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1689" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1689" s="6" cm="1">
         <f t="array" ref="E1689">IF(C1689="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1689)*(工作表2!B:B=D1689), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1690" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1690" s="6" t="str" cm="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1690" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1690" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1690" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1690" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1690" s="6" cm="1">
         <f t="array" ref="E1690">IF(C1690="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1690)*(工作表2!B:B=D1690), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1691" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1691" s="6" t="str" cm="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1691" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1691" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1691" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1691" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1691" s="6" cm="1">
         <f t="array" ref="E1691">IF(C1691="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1691)*(工作表2!B:B=D1691), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1692" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1692" s="6" t="str" cm="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1692" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1692" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1692" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1692" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1692" s="6" cm="1">
         <f t="array" ref="E1692">IF(C1692="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1692)*(工作表2!B:B=D1692), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1693" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1693" s="6" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1693" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1693" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1693" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1693" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1693" s="6" cm="1">
         <f t="array" ref="E1693">IF(C1693="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1693)*(工作表2!B:B=D1693), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1694" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1694" s="6" t="str" cm="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1694" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1694" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1694" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1694" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1694" s="6" cm="1">
         <f t="array" ref="E1694">IF(C1694="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1694)*(工作表2!B:B=D1694), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1695" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1695" s="6" t="str" cm="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1695" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1695" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1695" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1695" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1695" s="6" cm="1">
         <f t="array" ref="E1695">IF(C1695="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1695)*(工作表2!B:B=D1695), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1696" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1696" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1696" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1696" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1696" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1696" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1696" s="6" cm="1">
         <f t="array" ref="E1696">IF(C1696="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1696)*(工作表2!B:B=D1696), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1697" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1697" s="6" t="str" cm="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1697" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1697" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1697" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1697" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1697" s="6" cm="1">
         <f t="array" ref="E1697">IF(C1697="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1697)*(工作表2!B:B=D1697), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1698" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1698" s="6" t="str" cm="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1698" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1698" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1698" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1698" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1698" s="6" cm="1">
         <f t="array" ref="E1698">IF(C1698="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1698)*(工作表2!B:B=D1698), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1699" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1699" s="6" t="str" cm="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1699" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1699" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1699" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1699" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1699" s="6" cm="1">
         <f t="array" ref="E1699">IF(C1699="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1699)*(工作表2!B:B=D1699), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1700" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1700" s="6" t="str" cm="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1700" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1700" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1700" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1700" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1700" s="6" cm="1">
         <f t="array" ref="E1700">IF(C1700="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1700)*(工作表2!B:B=D1700), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1701" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1701" s="6" t="str" cm="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1701" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1701" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1701" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1701" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1701" s="6" cm="1">
         <f t="array" ref="E1701">IF(C1701="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1701)*(工作表2!B:B=D1701), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1702" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1702" s="6" t="str" cm="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1702" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1702" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1702" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1702" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1702" s="6" cm="1">
         <f t="array" ref="E1702">IF(C1702="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1702)*(工作表2!B:B=D1702), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1703" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1703" s="6" t="str" cm="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1703" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1703" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1703" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1703" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1703" s="6" cm="1">
         <f t="array" ref="E1703">IF(C1703="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1703)*(工作表2!B:B=D1703), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1704" spans="5:5" ht="15.75" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1704" s="6" t="str" cm="1">
         <f t="array" ref="E1704">IF(C1704="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1704)*(工作表2!B:B=D1704), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1705" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1705" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1705" s="6" t="str" cm="1">
         <f t="array" ref="E1705">IF(C1705="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1705)*(工作表2!B:B=D1705), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1706" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1706" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1706" s="6" t="str" cm="1">
         <f t="array" ref="E1706">IF(C1706="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1706)*(工作表2!B:B=D1706), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1707" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1707" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1707" s="6" t="str" cm="1">
         <f t="array" ref="E1707">IF(C1707="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1707)*(工作表2!B:B=D1707), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1708" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1708" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1708" s="6" t="str" cm="1">
         <f t="array" ref="E1708">IF(C1708="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1708)*(工作表2!B:B=D1708), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1709" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1709" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1709" s="6" t="str" cm="1">
         <f t="array" ref="E1709">IF(C1709="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1709)*(工作表2!B:B=D1709), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1710" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1710" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1710" s="6" t="str" cm="1">
         <f t="array" ref="E1710">IF(C1710="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1710)*(工作表2!B:B=D1710), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1711" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1711" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1711" s="6" t="str" cm="1">
         <f t="array" ref="E1711">IF(C1711="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1711)*(工作表2!B:B=D1711), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1712" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1712" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1712" s="6" t="str" cm="1">
         <f t="array" ref="E1712">IF(C1712="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1712)*(工作表2!B:B=D1712), 0)),""))</f>
         <v/>
@@ -38028,19 +39132,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -38050,8 +39154,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -38061,8 +39165,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="13">
+      <c r="A3" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -38072,8 +39176,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="13">
+      <c r="A4" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -38083,8 +39187,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="13">
+      <c r="A5" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -38094,8 +39198,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="13">
+      <c r="A6" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -38105,8 +39209,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -38116,8 +39220,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -38127,8 +39231,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -38138,8 +39242,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -38149,8 +39253,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -38160,895 +39264,1436 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="1">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13">
+      <c r="A19" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13">
+      <c r="A24" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13">
+      <c r="A26" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13">
+      <c r="A27" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13">
+      <c r="A28" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13">
+      <c r="A29" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13">
+      <c r="A30" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13">
+      <c r="A31" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13">
+      <c r="A32" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13">
+      <c r="A33" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13">
+      <c r="A34" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13">
+      <c r="A35" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13">
+      <c r="A36" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C36" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="37" spans="1:9" ht="13">
+      <c r="A37" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C37" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D37" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13">
+      <c r="A38" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C38" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D38" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13">
+      <c r="A39" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C39" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D39" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13">
+      <c r="A40" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C40" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D40" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="13">
+      <c r="A41" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C41" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D41" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="13">
+      <c r="A42" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C42" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D42" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13">
+      <c r="A43" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C43" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="13">
-      <c r="A20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13">
+      <c r="A44" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C44" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="45" spans="1:9" ht="13">
+      <c r="A45" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C45" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D45" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="13">
+      <c r="A46" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C46" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D46" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="13">
+      <c r="A47" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C47" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D47" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13">
+      <c r="A48" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C48" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D48" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13">
+      <c r="A49" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="1">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13">
+      <c r="A50" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="1">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13">
+      <c r="A51" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13">
+      <c r="A52" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13">
+      <c r="A53" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13">
+      <c r="A54" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13">
+      <c r="A55" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13">
+      <c r="A56" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13">
+      <c r="A57" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13">
+      <c r="A58" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="1">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13">
+      <c r="A59" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="1">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13">
+      <c r="A60" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13">
+      <c r="A61" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13">
+      <c r="A62" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="1">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13">
+      <c r="A63" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="1">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13">
+      <c r="A64" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="1">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="13">
+      <c r="A65" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="1">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13">
+      <c r="A66" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C66" s="1">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13">
+      <c r="A67" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="1">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13">
+      <c r="A68" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="1">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13">
+      <c r="A69" s="22" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13">
+      <c r="A70" s="22" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13">
+      <c r="A71" s="22" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13">
+      <c r="A72" s="22" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13">
+      <c r="A73" s="22" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="13">
+      <c r="A74" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13">
+      <c r="A75" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="13">
+      <c r="A76" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="13">
+      <c r="A77" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="13">
+      <c r="A78" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="13">
+      <c r="A79" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="13">
+      <c r="A80" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="13">
+      <c r="A81" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="13">
+      <c r="A82" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13">
+      <c r="A83" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="13">
+      <c r="A84" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="13">
+      <c r="A85" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="13">
+      <c r="A86" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="13">
+      <c r="A87" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="13">
+      <c r="A88" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="13">
+      <c r="A89" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="13">
+      <c r="A90" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="13">
+      <c r="A91" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="13">
+      <c r="A92" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="13">
+      <c r="A93" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="13">
+      <c r="A94" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C94">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="3" customFormat="1" ht="13">
+      <c r="A95" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" ht="13">
+      <c r="A96" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="13">
-      <c r="A26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="D96" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="13">
+      <c r="A97" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C97">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="D97" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="13">
+      <c r="A98" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C98">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="13">
-      <c r="A28" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="D98" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="13">
+      <c r="A99" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13">
-      <c r="A29" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="100" spans="1:4" ht="13">
+      <c r="A100" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C100">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13">
-      <c r="A30" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C30" s="1">
+    <row r="101" spans="1:4" ht="13">
+      <c r="A101" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C101">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13">
-      <c r="A31" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C31" s="1">
+    <row r="102" spans="1:4" ht="13">
+      <c r="A102" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C102">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13">
-      <c r="A32" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="C32" s="1">
+    <row r="103" spans="1:4" ht="13">
+      <c r="A103" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C103">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13">
-      <c r="A33" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C33" s="1">
+    <row r="104" spans="1:4" ht="13">
+      <c r="A104" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C104">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13">
-      <c r="A34" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="1">
+    <row r="105" spans="1:4" ht="13">
+      <c r="A105" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C105">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13">
-      <c r="A35" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C35" s="1">
+    <row r="106" spans="1:4" ht="13">
+      <c r="A106" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13">
-      <c r="A36" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C36" s="1">
+    <row r="107" spans="1:4" ht="13">
+      <c r="A107" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C107">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="13">
-      <c r="A37" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="D107" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="13">
+      <c r="A108" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C108">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="13">
-      <c r="A38" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="D108" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="13">
+      <c r="A109" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C109">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="13">
-      <c r="A39" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="13">
-      <c r="A40" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="D109" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="13">
+      <c r="A110" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C110">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="13">
-      <c r="A41" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="D110" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="13">
+      <c r="A111" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C111">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="13">
-      <c r="A42" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="D111" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="13">
+      <c r="A112" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C112">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="13">
-      <c r="A43" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="D112" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="13">
+      <c r="A113" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C113">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="13">
-      <c r="A44" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="D113" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="13">
+      <c r="A114" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="13">
-      <c r="A45" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13">
-      <c r="A46" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C46" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13">
-      <c r="A47" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="C47" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13">
-      <c r="A48" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13">
-      <c r="A49" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C49" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13">
-      <c r="A50" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="13">
-      <c r="A51" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C51" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="13">
-      <c r="A52" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C52" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="13">
-      <c r="A53" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C53" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="13">
-      <c r="A54" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C54" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="13">
-      <c r="A55" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="13">
-      <c r="A56" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="13">
-      <c r="A57" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="13">
-      <c r="A58" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13">
-      <c r="A59" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="13">
-      <c r="A60" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="13">
-      <c r="A61" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="13">
-      <c r="A62" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C62" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13">
-      <c r="A63" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13">
-      <c r="A64" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13">
-      <c r="A65" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="13">
-      <c r="A66" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="13">
-      <c r="A67" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="13">
-      <c r="A68" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C68" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13">
-      <c r="A69" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C69" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="13">
-      <c r="A70" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="13">
-      <c r="A71" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C71" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="13">
-      <c r="A72" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C72" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="13">
-      <c r="A73" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="13">
-      <c r="A74" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="13">
-      <c r="A75" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="13">
-      <c r="A76" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="13">
-      <c r="A77" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="13">
-      <c r="A78" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="13">
-      <c r="A79" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="13">
-      <c r="A80" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="13">
-      <c r="A81" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C81">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="13">
-      <c r="A82" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B82" t="s">
-        <v>286</v>
-      </c>
-      <c r="C82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="13">
-      <c r="A83" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C83">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="13">
-      <c r="A84" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C84">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="13">
-      <c r="A85" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C85">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="13">
-      <c r="A86" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C86">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="13">
-      <c r="A87" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C87">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="13">
-      <c r="A88" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C88">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="13">
-      <c r="A89" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C89">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="13">
-      <c r="A90" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="13">
-      <c r="A91" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C91">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="13">
-      <c r="A92" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C92">
-        <v>20</v>
+      <c r="D114" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1705</v>
       </c>
     </row>
   </sheetData>

--- a/訓練資料集(鞋子).xlsx
+++ b/訓練資料集(鞋子).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1558C5-EC3E-5F4E-A552-7F25C2C76894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392C9B8-0ED3-C349-9BD2-FAABA00A72AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7197" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7386" uniqueCount="1817">
   <si>
     <t>URL</t>
   </si>
@@ -5640,12 +5640,105 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>雙面外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境平拍正面</t>
+  </si>
+  <si>
+    <t>情境平拍背面</t>
+  </si>
+  <si>
+    <t>男女模特正面</t>
+  </si>
+  <si>
+    <t>男女模特背面</t>
+  </si>
+  <si>
+    <t>模特內層</t>
+  </si>
+  <si>
+    <t>_Fin_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內層</t>
+  </si>
+  <si>
+    <t>_Fin_Torso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>夜光正面</t>
+  </si>
+  <si>
+    <t>三合一外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境模特正面</t>
+  </si>
+  <si>
+    <t>情境模特側面</t>
+  </si>
+  <si>
+    <t>情境模特背面</t>
+  </si>
+  <si>
+    <t>套裝上身正面</t>
+  </si>
+  <si>
+    <t>_Ftp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身背面</t>
+  </si>
+  <si>
+    <t>_Fbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身正面</t>
+  </si>
+  <si>
+    <t>_Btp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身背面</t>
+  </si>
+  <si>
+    <t>_Bbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身特寫</t>
+  </si>
+  <si>
+    <t>套裝下身特寫</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5812,8 +5905,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5850,6 +5950,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F290"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2FFE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5879,7 +6003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5939,6 +6063,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6160,7 +6289,7 @@
   </sheetPr>
   <dimension ref="A1:H1830"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1631" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
@@ -39208,10 +39337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -40708,7 +40837,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -40719,7 +40848,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -40730,7 +40859,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -40741,7 +40870,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -40752,7 +40881,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="16">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -40763,7 +40892,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="16">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -40774,7 +40903,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="16">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -40785,7 +40914,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="16">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -40796,7 +40925,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="16">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -40810,7 +40939,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="16">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -40824,7 +40953,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="16">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -40838,7 +40967,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="16">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -40852,7 +40981,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="16">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -40866,7 +40995,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="16">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -40880,7 +41009,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="16">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -40894,7 +41023,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="16">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -40910,8 +41039,8 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:5" ht="16">
+      <c r="A129" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -40927,8 +41056,8 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:5" ht="16">
+      <c r="A130" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -40944,8 +41073,8 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:5" ht="16">
+      <c r="A131" s="31" t="s">
         <v>1777</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -40954,23 +41083,945 @@
       <c r="C131">
         <v>19</v>
       </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="16">
+      <c r="A132" s="31" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16">
+      <c r="A133" s="31" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16">
+      <c r="A134" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16">
+      <c r="A135" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16">
+      <c r="A136" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16">
+      <c r="A137" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16">
+      <c r="A138" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16">
+      <c r="A139" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16">
+      <c r="A140" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16">
+      <c r="A141" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16">
+      <c r="A142" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16">
+      <c r="A143" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16">
+      <c r="A144" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16">
+      <c r="A145" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16">
+      <c r="A146" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16">
+      <c r="A147" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16">
+      <c r="A148" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16">
+      <c r="A149" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16">
+      <c r="A150" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16">
+      <c r="A151" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
         <v>1693</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E151" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16">
+      <c r="A152" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
         <v>1694</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E152" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16">
+      <c r="A153" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
         <v>1695</v>
       </c>
-      <c r="G131" t="s">
+      <c r="E153" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16">
+      <c r="A154" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16">
+      <c r="A155" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16">
+      <c r="A156" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="16">
+      <c r="A157" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16">
+      <c r="A158" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16">
+      <c r="A159" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16">
+      <c r="A160" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16">
+      <c r="A161" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16">
+      <c r="A162" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16">
+      <c r="A163" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16">
+      <c r="A164" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16">
+      <c r="A165" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16">
+      <c r="A166" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="16">
+      <c r="A167" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="16">
+      <c r="A168" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="16">
+      <c r="A169" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C169">
+        <v>13</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16">
+      <c r="A170" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C170">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16">
+      <c r="A171" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="16">
+      <c r="A172" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16">
+      <c r="A173" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C173">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="16">
+      <c r="A174" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C174">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E174" t="s">
         <v>1696</v>
       </c>
-      <c r="H131" t="s">
+    </row>
+    <row r="175" spans="1:5" ht="16">
+      <c r="A175" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C175">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E175" t="s">
         <v>1697</v>
       </c>
-      <c r="I131" t="s">
+    </row>
+    <row r="176" spans="1:5" ht="16">
+      <c r="A176" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E176" t="s">
         <v>1700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16">
+      <c r="A177" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C177">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16">
+      <c r="A178" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C178">
+        <v>22</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16">
+      <c r="A179" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C179">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16">
+      <c r="A180" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16">
+      <c r="A181" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16">
+      <c r="A182" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16">
+      <c r="A183" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16">
+      <c r="A184" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16">
+      <c r="A185" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16">
+      <c r="A186" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16">
+      <c r="A187" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16">
+      <c r="A188" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16">
+      <c r="A189" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16">
+      <c r="A190" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16">
+      <c r="A191" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" s="33" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16">
+      <c r="A192" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C192">
+        <v>13</v>
+      </c>
+      <c r="D192" s="33" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="16">
+      <c r="A193" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C193">
+        <v>14</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="16">
+      <c r="A194" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="16">
+      <c r="A195" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C195">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="16">
+      <c r="A196" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C196">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="16">
+      <c r="A197" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C197">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="16">
+      <c r="A198" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C198">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="16">
+      <c r="A199" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="16">
+      <c r="A200" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C200">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="16">
+      <c r="A201" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C201">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="16">
+      <c r="A202" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B202" s="21" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202">
+        <v>23</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
